--- a/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构注册学生数.xlsx
+++ b/data_year/zb/教育/职业技术培训机构基本情况/职业技术培训机构注册学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,627 +518,297 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1585.249</v>
+        <v>1618.1684</v>
       </c>
       <c r="C2" t="n">
-        <v>878.6693</v>
+        <v>1192.5716</v>
       </c>
       <c r="D2" t="n">
-        <v>146.9774</v>
+        <v>202.6607</v>
       </c>
       <c r="E2" t="n">
-        <v>204.2556</v>
+        <v>73.4965</v>
       </c>
       <c r="F2" t="n">
-        <v>68.8206</v>
+        <v>132.6533</v>
       </c>
       <c r="G2" t="n">
-        <v>4684.2345</v>
+        <v>3424.2222</v>
       </c>
       <c r="H2" t="n">
-        <v>837.564</v>
+        <v>283.5373</v>
       </c>
       <c r="I2" t="n">
-        <v>82.1187</v>
+        <v>96.5624</v>
       </c>
       <c r="J2" t="n">
-        <v>4468.2395</v>
+        <v>3342.0863</v>
       </c>
       <c r="K2" t="n">
-        <v>98.6729</v>
+        <v>147.7691</v>
       </c>
       <c r="L2" t="n">
-        <v>2045.4265</v>
+        <v>1440.3806</v>
       </c>
       <c r="M2" t="n">
-        <v>649.5732</v>
+        <v>893.3484999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>11.7394</v>
+        <v>8.6394</v>
       </c>
       <c r="O2" t="n">
-        <v>17.7409</v>
+        <v>27.7883</v>
       </c>
       <c r="P2" t="n">
-        <v>5748.1382</v>
+        <v>4925.0045</v>
       </c>
       <c r="Q2" t="n">
-        <v>185.2344</v>
+        <v>308.2107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1538.3126</v>
+        <v>1674.9524</v>
       </c>
       <c r="C3" t="n">
-        <v>981.0336</v>
+        <v>1187.6632</v>
       </c>
       <c r="D3" t="n">
-        <v>73.4478</v>
+        <v>183.034</v>
       </c>
       <c r="E3" t="n">
-        <v>74.7538</v>
+        <v>75.9777</v>
       </c>
       <c r="F3" t="n">
-        <v>50.2024</v>
+        <v>119.3335</v>
       </c>
       <c r="G3" t="n">
-        <v>3729.3423</v>
+        <v>3496.953</v>
       </c>
       <c r="H3" t="n">
-        <v>96.6532</v>
+        <v>279.7667</v>
       </c>
       <c r="I3" t="n">
-        <v>102.8734</v>
+        <v>103.732</v>
       </c>
       <c r="J3" t="n">
-        <v>3596.883</v>
+        <v>3402.4779</v>
       </c>
       <c r="K3" t="n">
-        <v>95.05370000000001</v>
+        <v>181.1091</v>
       </c>
       <c r="L3" t="n">
-        <v>1961.9172</v>
+        <v>1447.7588</v>
       </c>
       <c r="M3" t="n">
-        <v>804.7124</v>
+        <v>900.8972</v>
       </c>
       <c r="N3" t="n">
-        <v>57.7055</v>
+        <v>18.4974</v>
       </c>
       <c r="O3" t="n">
-        <v>27.0827</v>
+        <v>36.0614</v>
       </c>
       <c r="P3" t="n">
-        <v>4882.7147</v>
+        <v>5021.1202</v>
       </c>
       <c r="Q3" t="n">
-        <v>172.3388</v>
+        <v>336.504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1691.7706</v>
+        <v>1460.5415</v>
       </c>
       <c r="C4" t="n">
-        <v>1044.1758</v>
+        <v>1098.7726</v>
       </c>
       <c r="D4" t="n">
-        <v>123.1765</v>
+        <v>177.8913</v>
       </c>
       <c r="E4" t="n">
-        <v>84.72929999999999</v>
+        <v>96.9879</v>
       </c>
       <c r="F4" t="n">
-        <v>78.5461</v>
+        <v>135.244</v>
       </c>
       <c r="G4" t="n">
-        <v>3842.3598</v>
+        <v>3176.0829</v>
       </c>
       <c r="H4" t="n">
-        <v>125.1977</v>
+        <v>336.2765</v>
       </c>
       <c r="I4" t="n">
-        <v>88.3785</v>
+        <v>101.3464</v>
       </c>
       <c r="J4" t="n">
-        <v>3745.5404</v>
+        <v>3059.0268</v>
       </c>
       <c r="K4" t="n">
-        <v>81.4443</v>
+        <v>136.2131</v>
       </c>
       <c r="L4" t="n">
-        <v>1928.5721</v>
+        <v>1262.2088</v>
       </c>
       <c r="M4" t="n">
-        <v>832.6208</v>
+        <v>819.5349</v>
       </c>
       <c r="N4" t="n">
-        <v>12.0901</v>
+        <v>20.0682</v>
       </c>
       <c r="O4" t="n">
-        <v>32.1244</v>
+        <v>21.0412</v>
       </c>
       <c r="P4" t="n">
-        <v>5078.6504</v>
+        <v>4567.3538</v>
       </c>
       <c r="Q4" t="n">
-        <v>192.1148</v>
+        <v>292.4983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1687.0676</v>
+        <v>1411.9215</v>
       </c>
       <c r="C5" t="n">
-        <v>1028.4847</v>
+        <v>1167.4173</v>
       </c>
       <c r="D5" t="n">
-        <v>119.5681</v>
+        <v>164.0738</v>
       </c>
       <c r="E5" t="n">
-        <v>96.127</v>
+        <v>145.3188</v>
       </c>
       <c r="F5" t="n">
-        <v>114.021</v>
+        <v>130.1886</v>
       </c>
       <c r="G5" t="n">
-        <v>3787.6621</v>
+        <v>3043.0375</v>
       </c>
       <c r="H5" t="n">
-        <v>116.4527</v>
+        <v>300.6223</v>
       </c>
       <c r="I5" t="n">
-        <v>77.10290000000001</v>
+        <v>118.561</v>
       </c>
       <c r="J5" t="n">
-        <v>3673.5821</v>
+        <v>2869.3051</v>
       </c>
       <c r="K5" t="n">
-        <v>102.6578</v>
+        <v>144.9522</v>
       </c>
       <c r="L5" t="n">
-        <v>1870.0618</v>
+        <v>1156.7613</v>
       </c>
       <c r="M5" t="n">
-        <v>831.8137</v>
+        <v>884.7825</v>
       </c>
       <c r="N5" t="n">
-        <v>17.953</v>
+        <v>28.4136</v>
       </c>
       <c r="O5" t="n">
-        <v>34.9163</v>
+        <v>30.3643</v>
       </c>
       <c r="P5" t="n">
-        <v>5067.7419</v>
+        <v>4515.9599</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.5951</v>
+        <v>305.5051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1672.5715</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1057.1842</v>
-      </c>
-      <c r="D6" t="n">
-        <v>167.9721</v>
-      </c>
-      <c r="E6" t="n">
-        <v>83.6622</v>
-      </c>
-      <c r="F6" t="n">
-        <v>133.8448</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3694.8254</v>
-      </c>
-      <c r="H6" t="n">
-        <v>138.9548</v>
-      </c>
-      <c r="I6" t="n">
-        <v>111.0135</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3584.9634</v>
-      </c>
-      <c r="K6" t="n">
-        <v>103.3272</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1773.4371</v>
-      </c>
-      <c r="M6" t="n">
-        <v>778.1986000000001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>26.1998</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30.3568</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>5019.5384</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>267.5288</v>
-      </c>
+        <v>4237.722</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1695.2107</v>
-      </c>
-      <c r="C7" t="n">
-        <v>993.4651</v>
-      </c>
-      <c r="D7" t="n">
-        <v>119.7692</v>
-      </c>
-      <c r="E7" t="n">
-        <v>81.1878</v>
-      </c>
-      <c r="F7" t="n">
-        <v>142.016</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3723.9079</v>
-      </c>
-      <c r="H7" t="n">
-        <v>188.8879</v>
-      </c>
-      <c r="I7" t="n">
-        <v>85.303</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3611.9903</v>
-      </c>
-      <c r="K7" t="n">
-        <v>127.8349</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1727.8917</v>
-      </c>
-      <c r="M7" t="n">
-        <v>788.3929000000001</v>
-      </c>
-      <c r="N7" t="n">
-        <v>30.7298</v>
-      </c>
-      <c r="O7" t="n">
-        <v>25.8036</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>5013.0275</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>295.6545</v>
-      </c>
+        <v>4218.3931</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1618.1684</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1192.5716</v>
-      </c>
-      <c r="D8" t="n">
-        <v>202.6607</v>
-      </c>
-      <c r="E8" t="n">
-        <v>73.4965</v>
-      </c>
-      <c r="F8" t="n">
-        <v>132.6533</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3424.2222</v>
-      </c>
-      <c r="H8" t="n">
-        <v>283.5373</v>
-      </c>
-      <c r="I8" t="n">
-        <v>96.5624</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3342.0863</v>
-      </c>
-      <c r="K8" t="n">
-        <v>147.7691</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1440.3806</v>
-      </c>
-      <c r="M8" t="n">
-        <v>893.3484999999999</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8.6394</v>
-      </c>
-      <c r="O8" t="n">
-        <v>27.7883</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4925.0045</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>308.2107</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1674.9524</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1187.6632</v>
-      </c>
-      <c r="D9" t="n">
-        <v>183.034</v>
-      </c>
-      <c r="E9" t="n">
-        <v>75.9777</v>
-      </c>
-      <c r="F9" t="n">
-        <v>119.3335</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3496.953</v>
-      </c>
-      <c r="H9" t="n">
-        <v>279.7667</v>
-      </c>
-      <c r="I9" t="n">
-        <v>103.732</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3402.4779</v>
-      </c>
-      <c r="K9" t="n">
-        <v>181.1091</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1447.7588</v>
-      </c>
-      <c r="M9" t="n">
-        <v>900.8972</v>
-      </c>
-      <c r="N9" t="n">
-        <v>18.4974</v>
-      </c>
-      <c r="O9" t="n">
-        <v>36.0614</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5021.1202</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>336.504</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1460.5415</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1098.7726</v>
-      </c>
-      <c r="D10" t="n">
-        <v>177.8913</v>
-      </c>
-      <c r="E10" t="n">
-        <v>96.9879</v>
-      </c>
-      <c r="F10" t="n">
-        <v>135.244</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3176.0829</v>
-      </c>
-      <c r="H10" t="n">
-        <v>336.2765</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101.3464</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3059.0268</v>
-      </c>
-      <c r="K10" t="n">
-        <v>136.2131</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1262.2088</v>
-      </c>
-      <c r="M10" t="n">
-        <v>819.5349</v>
-      </c>
-      <c r="N10" t="n">
-        <v>20.0682</v>
-      </c>
-      <c r="O10" t="n">
-        <v>21.0412</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4567.3538</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>292.4983</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1411.9215</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1167.4173</v>
-      </c>
-      <c r="D11" t="n">
-        <v>164.0738</v>
-      </c>
-      <c r="E11" t="n">
-        <v>145.3188</v>
-      </c>
-      <c r="F11" t="n">
-        <v>130.1886</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3043.0375</v>
-      </c>
-      <c r="H11" t="n">
-        <v>300.6223</v>
-      </c>
-      <c r="I11" t="n">
-        <v>118.561</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2869.3051</v>
-      </c>
-      <c r="K11" t="n">
-        <v>144.9522</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1156.7613</v>
-      </c>
-      <c r="M11" t="n">
-        <v>884.7825</v>
-      </c>
-      <c r="N11" t="n">
-        <v>28.4136</v>
-      </c>
-      <c r="O11" t="n">
-        <v>30.3643</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4515.9599</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>305.5051</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>4237.722</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>4218.3931</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
         <v>4206.4949</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
